--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76274CEC-8EA9-E748-BFCD-ECE13A272ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDDE736-6A20-1041-89AC-B6B0F63A58B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2980" windowWidth="15700" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView xWindow="540" yWindow="3200" windowWidth="15700" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>${name}</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>[4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +635,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -860,6 +864,9 @@
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDDE736-6A20-1041-89AC-B6B0F63A58B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A1B38-43CA-EB4F-8493-BD1A3F098C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3200" windowWidth="15700" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView xWindow="3580" yWindow="3200" windowWidth="15700" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[6]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -237,6 +233,10 @@
   </si>
   <si>
     <t>[9]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +635,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
     <sheet name="CmdTyoeCfg" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
   <si>
     <t>${name}</t>
   </si>
@@ -36,235 +36,253 @@
     <t>nCmdID</t>
   </si>
   <si>
+    <t>strDescEditor</t>
+  </si>
+  <si>
+    <t>nLevel</t>
+  </si>
+  <si>
+    <t>nType</t>
+  </si>
+  <si>
+    <t>arrParams</t>
+  </si>
+  <si>
+    <t>bApplyRootMotion</t>
+  </si>
+  <si>
+    <t>arrLayer</t>
+  </si>
+  <si>
+    <t>bIdleLayerPlay</t>
+  </si>
+  <si>
+    <t>${desc}</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>指令登等级</t>
+  </si>
+  <si>
+    <t>指令类型</t>
+  </si>
+  <si>
+    <t>指令参数</t>
+  </si>
+  <si>
+    <t>是否启用根运动</t>
+  </si>
+  <si>
+    <t>${type}</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int32[]</t>
+  </si>
+  <si>
+    <t>${source}</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>${key}</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>JumpDown</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Injured</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Monster0Idle</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Monster0Run</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Monster0Skill1</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Monster0Skill2</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Monster0Die</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>怪物毒气</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>玩家增益</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>战士走路</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>玩家打地</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
     <t>strDesc</t>
-  </si>
-  <si>
-    <t>nLevel</t>
-  </si>
-  <si>
-    <t>nType</t>
-  </si>
-  <si>
-    <t>arrParams</t>
-  </si>
-  <si>
-    <t>bApplyRootMotion</t>
-  </si>
-  <si>
-    <t>arrLayer</t>
-  </si>
-  <si>
-    <t>bIdleLayerPlay</t>
-  </si>
-  <si>
-    <t>${desc}</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>指令登等级</t>
-  </si>
-  <si>
-    <t>指令类型</t>
-  </si>
-  <si>
-    <t>指令参数</t>
-  </si>
-  <si>
-    <t>是否启用根运动</t>
-  </si>
-  <si>
-    <t>${type}</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int32[]</t>
-  </si>
-  <si>
-    <t>${source}</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>${key}</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Jump</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>JumpDown</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Skill1</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Skill2</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Skill3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Injured</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Monster0Idle</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Monster0Run</t>
-  </si>
-  <si>
-    <t>[14]</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Monster0Skill1</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Monster0Skill2</t>
-  </si>
-  <si>
-    <t>[16]</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Monster0Die</t>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Monster0Buff</t>
-  </si>
-  <si>
-    <t>[18]</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>[21]</t>
   </si>
   <si>
     <t>strdesc2</t>
@@ -286,22 +304,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,6 +330,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,12 +338,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,6 +353,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +361,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +369,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,6 +377,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,12 +385,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,6 +400,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,6 +408,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,12 +416,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,36 +431,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -810,10 +843,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
@@ -822,10 +855,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
@@ -834,10 +867,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
@@ -846,10 +879,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
@@ -858,10 +891,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
@@ -870,174 +903,27 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,652 +1265,689 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1" style="50"/>
-    <col min="9" max="9" width="13.2" customWidth="1" style="50"/>
+    <col min="3" max="3" width="13.5333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="51">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="50" t="s">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="50" t="s">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="50" t="s">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="50" t="s">
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="50" t="s">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>27</v>
+      <c r="I24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2044,84 +1967,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="50">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>81</v>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
     <sheet name="CmdTyoeCfg" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>${name}</t>
   </si>
@@ -309,20 +309,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,7 +327,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,14 +334,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,7 +347,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,7 +354,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,7 +361,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,7 +368,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,14 +375,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,7 +388,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,7 +395,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,14 +402,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,35 +415,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -913,17 +892,164 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="53">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,680 +1399,680 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="3" max="3" width="13.5333333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.2" customWidth="1"/>
+    <col min="3" max="3" width="13.5333333333333" customWidth="1" style="49"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1" style="49"/>
+    <col min="9" max="9" width="13.2" customWidth="1" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+      <c r="I8" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2" t="s">
+      <c r="I20" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
+      <c r="I21" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2" t="s">
+      <c r="I22" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
+      <c r="I23" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1967,83 +2093,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="49" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
     <sheet name="CmdTyoeCfg" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
   <si>
     <t>${name}</t>
   </si>
@@ -57,6 +57,9 @@
     <t>bIdleLayerPlay</t>
   </si>
   <si>
+    <t>bIsIK</t>
+  </si>
+  <si>
     <t>${desc}</t>
   </si>
   <si>
@@ -280,6 +283,33 @@
   </si>
   <si>
     <t>[22]</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>xiayu</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>雷电</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>攻击加成</t>
+  </si>
+  <si>
+    <t>[26]</t>
   </si>
   <si>
     <t>strDesc</t>
@@ -309,17 +339,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,6 +360,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,12 +368,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +383,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,6 +391,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,6 +399,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,6 +407,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,12 +415,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +430,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,6 +438,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,12 +446,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,30 +461,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -892,164 +943,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1391,689 +1295,851 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="3" max="3" width="13.5333333333333" customWidth="1" style="49"/>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1" style="49"/>
-    <col min="9" max="9" width="13.2" customWidth="1" style="49"/>
+    <col min="3" max="3" width="13.5333333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="50" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="49" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="49" t="s">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="49" t="s">
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="49" t="s">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="49" t="s">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="49" t="s">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="49" t="s">
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="49" t="s">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="49" t="s">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="49" t="s">
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="49" t="s">
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="49" t="s">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="49" t="s">
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="49" t="s">
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="49" t="s">
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="49" t="s">
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="49" t="s">
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>28</v>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2093,84 +2159,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="50">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="49">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>87</v>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/CmdCfg.xlsx
+++ b/Misc/Excel/CmdCfg.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CmdCfg" sheetId="3" r:id="rId1"/>
     <sheet name="CmdTyoeCfg" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>${name}</t>
   </si>
@@ -111,7 +111,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Idle</t>
+    <t>静止</t>
   </si>
   <si>
     <t>[3]</t>
@@ -126,7 +126,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Run</t>
+    <t>跑步</t>
   </si>
   <si>
     <t>[8]</t>
@@ -135,7 +135,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>Jump</t>
+    <t>跳跃</t>
   </si>
   <si>
     <t>[7]</t>
@@ -144,7 +144,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>JumpDown</t>
+    <t>跳跃落地</t>
   </si>
   <si>
     <t>6</t>
@@ -156,7 +156,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Attack</t>
+    <t>战士六连击</t>
   </si>
   <si>
     <t>[1]</t>
@@ -171,7 +171,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>Skill2</t>
+    <t>战士风火轮</t>
   </si>
   <si>
     <t>[9]</t>
@@ -180,13 +180,13 @@
     <t>8</t>
   </si>
   <si>
-    <t>Skill3</t>
+    <t>战士五连斩</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>Teleport</t>
+    <t>战士瞬移</t>
   </si>
   <si>
     <t>999</t>
@@ -198,7 +198,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Injured</t>
+    <t>受伤反馈</t>
   </si>
   <si>
     <t>[4]</t>
@@ -207,7 +207,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>Monster0Idle</t>
+    <t>怪物静止</t>
   </si>
   <si>
     <t>[13]</t>
@@ -216,7 +216,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>Monster0Run</t>
+    <t>怪物跑</t>
   </si>
   <si>
     <t>[14]</t>
@@ -225,7 +225,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>Monster0Skill1</t>
+    <t>怪物挥砍</t>
   </si>
   <si>
     <t>[15]</t>
@@ -234,7 +234,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Monster0Skill2</t>
+    <t>怪物跳斩</t>
   </si>
   <si>
     <t>[16]</t>
@@ -243,7 +243,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>Monster0Die</t>
+    <t>死亡</t>
   </si>
   <si>
     <t>[17]</t>
@@ -279,7 +279,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>玩家打地</t>
+    <t>战士地火爆炸</t>
   </si>
   <si>
     <t>[22]</t>
@@ -288,7 +288,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>xiayu</t>
+    <t>雨水减速buff</t>
   </si>
   <si>
     <t>[24]</t>
@@ -297,7 +297,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>雷电</t>
+    <t>雷电buff</t>
   </si>
   <si>
     <t>[25]</t>
@@ -306,10 +306,37 @@
     <t>22</t>
   </si>
   <si>
-    <t>攻击加成</t>
+    <t>防御加成</t>
   </si>
   <si>
     <t>[26]</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>蓝战士普通攻击</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>蓝战士突刺</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>魔法石爆炸</t>
+  </si>
+  <si>
+    <t>[30]</t>
   </si>
   <si>
     <t>strDesc</t>
@@ -339,20 +366,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,7 +384,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +391,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,7 +404,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,7 +411,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,7 +418,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,7 +425,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,14 +432,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,7 +445,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,7 +452,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,14 +459,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,35 +472,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -943,17 +949,170 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="55">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,851 +1454,947 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
-    <col min="3" max="3" width="13.5333333333333" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.2" customWidth="1"/>
+    <col min="3" max="3" width="13.5333333333333" customWidth="1" style="51"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1" style="51"/>
+    <col min="9" max="9" width="13.2" customWidth="1" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="I8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="I20" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
+      <c r="I21" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
+      <c r="I22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
+      <c r="I23" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
+      <c r="I24" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
+      <c r="I25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E26" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
+      <c r="I26" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
+      <c r="I27" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2159,84 +2414,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="52">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
+      <c r="C6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
